--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -1,122 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python文档\selenium-master\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7755" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
-  <si>
-    <t>case_id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>actualed</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>输入过期的账号和密码</t>
-  </si>
-  <si>
-    <t>zhou1234</t>
-  </si>
-  <si>
-    <t>账号已过期</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>输入错误的账号和密码</t>
-  </si>
-  <si>
-    <t>test1234</t>
-  </si>
-  <si>
-    <t>用户不存在</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>输入正确的账号错误的密码</t>
-  </si>
-  <si>
-    <t>ecshop</t>
-  </si>
-  <si>
-    <t>密码错误</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>输入正确的账号和密码</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>密码错误次数过多，请稍后再试</t>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -132,25 +50,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -438,136 +347,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="16.25"/>
+    <col customWidth="1" max="2" min="2" style="1" width="28.125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="17.5"/>
+    <col customWidth="1" max="4" min="4" style="1" width="15.125"/>
+    <col customWidth="1" max="5" min="5" style="1" width="17.375"/>
+    <col customWidth="1" max="6" min="6" style="1" width="12.875"/>
+    <col customWidth="1" max="8" min="7" style="1" width="9"/>
+    <col customWidth="1" max="16384" min="9" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>actualed</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>输入过期的账号和密码</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>zhou1234</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>zhou1234</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>账号已过期</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>输入错误的账号和密码</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>test1234</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>zhou1234</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>用户不存在</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>输入正确的账号错误的密码</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>ecshop</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>zhou1234</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>密码错误</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>输入正确的账号和密码</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>ecshop</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>登录成功</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>